--- a/eastMaui/rawData/nodes_for_output.xlsx
+++ b/eastMaui/rawData/nodes_for_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danwa\Documents\Programming\Trutta\HSHEP\EMaui\EMpackage\eastMaui\rawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5FCC62-1426-4166-B1CF-67B345C192EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2277ADD9-D528-450B-82A9-E8C9BD81765F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{C52DA1FB-7AE4-4E2C-8739-9BE1B585D4D9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C52DA1FB-7AE4-4E2C-8739-9BE1B585D4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -1967,31 +1967,31 @@
   <dimension ref="A1:S312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G315" sqref="G315"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="2" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>526</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>309</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>310</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>101</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>103</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>106</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>107</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>110</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>128</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>130</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>132</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>290</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>291</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>292</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>76</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>79</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>82</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>84</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>85</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>87</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>90</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>96</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>104</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>120</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>121</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>122</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>123</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>131</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>133</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>134</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>154</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>157</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>295</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>111</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>180</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>182</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>183</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>184</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>185</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>186</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>187</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>188</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>190</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>191</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>192</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>193</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>194</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>195</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>196</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>201</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>205</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>207</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>208</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>214</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>215</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>216</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>217</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>218</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>220</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>222</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>223</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>224</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>225</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>226</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>227</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>228</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>229</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>230</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>231</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>232</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>233</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>234</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>235</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>236</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>237</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>238</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>239</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>240</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>241</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>242</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>243</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>278</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>279</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>280</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>281</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>65</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>145</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>189</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>209</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>210</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>211</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>213</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>219</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>276</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>277</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>55</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>66</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>86</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>94</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>105</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>117</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>118</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>124</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>125</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>126</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>127</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>129</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>137</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>140</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>141</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>142</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>143</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>144</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>146</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>147</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>161</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>162</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>169</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>170</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>174</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>175</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>296</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>297</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>298</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>299</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>300</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>301</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>302</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>303</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>304</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>305</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>306</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>307</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>308</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>100</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>109</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>112</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>113</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>119</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>283</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>284</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>285</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>286</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>287</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>288</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>289</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>108</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>114</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>115</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>116</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>138</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>148</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>149</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>150</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>151</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>152</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>153</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>155</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>156</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>158</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>159</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>160</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>171</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>172</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>173</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>176</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>177</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>178</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>179</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>260</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>261</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>262</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>263</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>264</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>265</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>267</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>268</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>270</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>271</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>272</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>273</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>274</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>275</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>282</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>72</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>73</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>74</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>136</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>181</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>202</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>203</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>204</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>206</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>212</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>221</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>244</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>245</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>246</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>247</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>248</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>249</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>250</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>251</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>252</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>253</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>254</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>255</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>256</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>257</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>258</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>293</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>294</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>56</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>57</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>58</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>59</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>60</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>61</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>62</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>63</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>64</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>67</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>68</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>70</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>71</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>77</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>78</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>81</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>83</v>
       </c>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>88</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>89</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>92</v>
       </c>
@@ -16387,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>93</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>97</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>98</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>139</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>259</v>
       </c>
@@ -16682,7 +16682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>266</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>269</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>69</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>75</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>80</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>91</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>99</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>135</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>163</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>3</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>5</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>6</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>7</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>9</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>10</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>11</v>
       </c>
@@ -17743,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>12</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>13</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>14</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>15</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>16</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>17</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>18</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>19</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>20</v>
       </c>
@@ -18220,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>21</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>22</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>23</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>24</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>25</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>26</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>27</v>
       </c>
@@ -18591,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>28</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>29</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>30</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>31</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>32</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>33</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>34</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>35</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>36</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>37</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>38</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>39</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>40</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>41</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>42</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>43</v>
       </c>
@@ -19439,7 +19439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>44</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>311</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>45</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>46</v>
       </c>
@@ -19657,7 +19657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>47</v>
       </c>
@@ -19710,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>48</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>49</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="308" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>52</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="309" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>53</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="310" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>54</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="311" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>50</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="312" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>51</v>
       </c>
